--- a/用例数据/沪A/ETF拆分/流通股分配/测试结果.xlsx
+++ b/用例数据/沪A/ETF拆分/流通股分配/测试结果.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1823" uniqueCount="500">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1829" uniqueCount="501">
   <si>
     <t>OCCURTIME</t>
   </si>
@@ -1523,6 +1523,10 @@
   </si>
   <si>
     <t>5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CCB1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3927,8 +3931,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:EI7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="BN1" workbookViewId="0">
-      <selection activeCell="BY11" sqref="BY11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4375,6 +4379,9 @@
       <c r="F2" s="1" t="s">
         <v>24</v>
       </c>
+      <c r="I2" s="1" t="s">
+        <v>500</v>
+      </c>
       <c r="J2" s="1" t="s">
         <v>54</v>
       </c>
@@ -4698,6 +4705,9 @@
       <c r="F3" s="1" t="s">
         <v>24</v>
       </c>
+      <c r="I3" s="1" t="s">
+        <v>500</v>
+      </c>
       <c r="J3" s="1" t="s">
         <v>46</v>
       </c>
@@ -5021,6 +5031,9 @@
       <c r="F4" s="1" t="s">
         <v>24</v>
       </c>
+      <c r="I4" s="1" t="s">
+        <v>500</v>
+      </c>
       <c r="J4" s="1" t="s">
         <v>31</v>
       </c>
@@ -5344,6 +5357,9 @@
       <c r="F5" s="1" t="s">
         <v>24</v>
       </c>
+      <c r="I5" s="1" t="s">
+        <v>500</v>
+      </c>
       <c r="J5" s="1" t="s">
         <v>46</v>
       </c>
@@ -5667,6 +5683,9 @@
       <c r="F6" s="1" t="s">
         <v>24</v>
       </c>
+      <c r="I6" s="1" t="s">
+        <v>500</v>
+      </c>
       <c r="J6" s="1" t="s">
         <v>54</v>
       </c>
@@ -5989,6 +6008,9 @@
       </c>
       <c r="F7" s="1" t="s">
         <v>24</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>500</v>
       </c>
       <c r="J7" s="1" t="s">
         <v>60</v>

--- a/用例数据/沪A/ETF拆分/流通股分配/测试结果.xlsx
+++ b/用例数据/沪A/ETF拆分/流通股分配/测试结果.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="stkcheckin" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1823" uniqueCount="499">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1823" uniqueCount="500">
   <si>
     <t>OCCURTIME</t>
   </si>
@@ -1520,6 +1520,10 @@
   </si>
   <si>
     <t>14356.7900</t>
+  </si>
+  <si>
+    <t>5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -2074,7 +2078,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CI17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
@@ -3923,8 +3927,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:EI7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+    <sheetView tabSelected="1" topLeftCell="BN1" workbookViewId="0">
+      <selection activeCell="BY11" sqref="BY11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4558,7 +4562,7 @@
         <v>281</v>
       </c>
       <c r="BZ2" s="1" t="s">
-        <v>24</v>
+        <v>499</v>
       </c>
       <c r="CA2" s="1" t="s">
         <v>26</v>
@@ -4881,7 +4885,7 @@
         <v>281</v>
       </c>
       <c r="BZ3" s="1" t="s">
-        <v>24</v>
+        <v>499</v>
       </c>
       <c r="CA3" s="1" t="s">
         <v>26</v>
@@ -5204,7 +5208,7 @@
         <v>281</v>
       </c>
       <c r="BZ4" s="1" t="s">
-        <v>24</v>
+        <v>499</v>
       </c>
       <c r="CA4" s="1" t="s">
         <v>26</v>
@@ -5527,7 +5531,7 @@
         <v>281</v>
       </c>
       <c r="BZ5" s="1" t="s">
-        <v>24</v>
+        <v>499</v>
       </c>
       <c r="CA5" s="1" t="s">
         <v>26</v>
@@ -5850,7 +5854,7 @@
         <v>281</v>
       </c>
       <c r="BZ6" s="1" t="s">
-        <v>24</v>
+        <v>499</v>
       </c>
       <c r="CA6" s="1" t="s">
         <v>26</v>
@@ -6173,7 +6177,7 @@
         <v>281</v>
       </c>
       <c r="BZ7" s="1" t="s">
-        <v>24</v>
+        <v>499</v>
       </c>
       <c r="CA7" s="1" t="s">
         <v>26</v>

--- a/用例数据/沪A/ETF拆分/流通股分配/测试结果.xlsx
+++ b/用例数据/沪A/ETF拆分/流通股分配/测试结果.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="stkcheckin" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1829" uniqueCount="501">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1829" uniqueCount="503">
   <si>
     <t>OCCURTIME</t>
   </si>
@@ -1426,72 +1426,15 @@
     <t>沪港深500ETF基金</t>
   </si>
   <si>
-    <t>A2</t>
-  </si>
-  <si>
-    <t>30052751</t>
-  </si>
-  <si>
-    <t>20221011231453</t>
-  </si>
-  <si>
     <t>0.78700000</t>
   </si>
   <si>
     <t>20221011000000</t>
   </si>
   <si>
-    <t>10049000.000</t>
-  </si>
-  <si>
-    <t>000006908461</t>
-  </si>
-  <si>
-    <t>30052865</t>
-  </si>
-  <si>
-    <t>-26058481.090</t>
-  </si>
-  <si>
-    <t>000006908575</t>
-  </si>
-  <si>
-    <t>30052866</t>
-  </si>
-  <si>
     <t>0.83600000</t>
   </si>
   <si>
-    <t>1000778735.780</t>
-  </si>
-  <si>
-    <t>000006908576</t>
-  </si>
-  <si>
-    <t>30052867</t>
-  </si>
-  <si>
-    <t>000006908577</t>
-  </si>
-  <si>
-    <t>30052868</t>
-  </si>
-  <si>
-    <t>10676985.000</t>
-  </si>
-  <si>
-    <t>000006908578</t>
-  </si>
-  <si>
-    <t>30052869</t>
-  </si>
-  <si>
-    <t>10021000.000</t>
-  </si>
-  <si>
-    <t>000006908579</t>
-  </si>
-  <si>
     <t>20221125000000</t>
   </si>
   <si>
@@ -1522,12 +1465,73 @@
     <t>14356.7900</t>
   </si>
   <si>
+    <t>30001308</t>
+  </si>
+  <si>
+    <t>20221128162014</t>
+  </si>
+  <si>
+    <t>CCB1</t>
+  </si>
+  <si>
+    <t>20221128000000</t>
+  </si>
+  <si>
+    <t>11529480.270</t>
+  </si>
+  <si>
+    <t>99999</t>
+  </si>
+  <si>
     <t>5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CCB1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>000007055097</t>
+  </si>
+  <si>
+    <t>30001414</t>
+  </si>
+  <si>
+    <t>20221128162015</t>
+  </si>
+  <si>
+    <t>15961551.890</t>
+  </si>
+  <si>
+    <t>000007055203</t>
+  </si>
+  <si>
+    <t>30001413</t>
+  </si>
+  <si>
+    <t>-27880000.180</t>
+  </si>
+  <si>
+    <t>000007055202</t>
+  </si>
+  <si>
+    <t>30001415</t>
+  </si>
+  <si>
+    <t>000007055204</t>
+  </si>
+  <si>
+    <t>30001416</t>
+  </si>
+  <si>
+    <t>12159465.270</t>
+  </si>
+  <si>
+    <t>000007055205</t>
+  </si>
+  <si>
+    <t>30001417</t>
+  </si>
+  <si>
+    <t>35858.400</t>
+  </si>
+  <si>
+    <t>000007055206</t>
   </si>
 </sst>
 </file>
@@ -1866,9 +1870,9 @@
       <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1942,9 +1946,9 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>24</v>
@@ -1998,7 +2002,7 @@
         <v>25</v>
       </c>
       <c r="V2" s="1" t="s">
-        <v>489</v>
+        <v>470</v>
       </c>
       <c r="W2" s="1" t="s">
         <v>29</v>
@@ -2007,9 +2011,9 @@
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>24</v>
@@ -2063,7 +2067,7 @@
         <v>25</v>
       </c>
       <c r="V3" s="1" t="s">
-        <v>489</v>
+        <v>470</v>
       </c>
       <c r="W3" s="1" t="s">
         <v>29</v>
@@ -2086,9 +2090,9 @@
       <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:87" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:87" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -2351,7 +2355,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="2" spans="1:87" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:87" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>24</v>
       </c>
@@ -2386,7 +2390,7 @@
         <v>37</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>494</v>
+        <v>475</v>
       </c>
       <c r="M2" s="1" t="s">
         <v>26</v>
@@ -2431,7 +2435,7 @@
         <v>43</v>
       </c>
       <c r="AA2" s="1" t="s">
-        <v>490</v>
+        <v>471</v>
       </c>
       <c r="AB2" s="1" t="s">
         <v>24</v>
@@ -2554,7 +2558,7 @@
         <v>25</v>
       </c>
       <c r="BP2" s="1" t="s">
-        <v>494</v>
+        <v>475</v>
       </c>
       <c r="BQ2" s="1" t="s">
         <v>26</v>
@@ -2611,7 +2615,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:87" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:87" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>24</v>
       </c>
@@ -2646,7 +2650,7 @@
         <v>49</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>494</v>
+        <v>475</v>
       </c>
       <c r="M3" s="1" t="s">
         <v>26</v>
@@ -2691,7 +2695,7 @@
         <v>43</v>
       </c>
       <c r="AA3" s="1" t="s">
-        <v>490</v>
+        <v>471</v>
       </c>
       <c r="AB3" s="1" t="s">
         <v>24</v>
@@ -2814,7 +2818,7 @@
         <v>25</v>
       </c>
       <c r="BP3" s="1" t="s">
-        <v>494</v>
+        <v>475</v>
       </c>
       <c r="BQ3" s="1" t="s">
         <v>26</v>
@@ -2871,7 +2875,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:87" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:87" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>24</v>
       </c>
@@ -2906,7 +2910,7 @@
         <v>52</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>495</v>
+        <v>476</v>
       </c>
       <c r="M4" s="1" t="s">
         <v>26</v>
@@ -2951,7 +2955,7 @@
         <v>43</v>
       </c>
       <c r="AA4" s="1" t="s">
-        <v>492</v>
+        <v>473</v>
       </c>
       <c r="AB4" s="1" t="s">
         <v>24</v>
@@ -3074,7 +3078,7 @@
         <v>25</v>
       </c>
       <c r="BP4" s="1" t="s">
-        <v>495</v>
+        <v>476</v>
       </c>
       <c r="BQ4" s="1" t="s">
         <v>26</v>
@@ -3131,7 +3135,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:87" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:87" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>24</v>
       </c>
@@ -3166,7 +3170,7 @@
         <v>56</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>496</v>
+        <v>477</v>
       </c>
       <c r="M5" s="1" t="s">
         <v>26</v>
@@ -3211,7 +3215,7 @@
         <v>43</v>
       </c>
       <c r="AA5" s="1" t="s">
-        <v>490</v>
+        <v>471</v>
       </c>
       <c r="AB5" s="1" t="s">
         <v>24</v>
@@ -3334,7 +3338,7 @@
         <v>25</v>
       </c>
       <c r="BP5" s="1" t="s">
-        <v>496</v>
+        <v>477</v>
       </c>
       <c r="BQ5" s="1" t="s">
         <v>26</v>
@@ -3391,7 +3395,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:87" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:87" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>24</v>
       </c>
@@ -3426,7 +3430,7 @@
         <v>58</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>497</v>
+        <v>478</v>
       </c>
       <c r="M6" s="1" t="s">
         <v>26</v>
@@ -3471,7 +3475,7 @@
         <v>43</v>
       </c>
       <c r="AA6" s="1" t="s">
-        <v>492</v>
+        <v>473</v>
       </c>
       <c r="AB6" s="1" t="s">
         <v>24</v>
@@ -3594,7 +3598,7 @@
         <v>25</v>
       </c>
       <c r="BP6" s="1" t="s">
-        <v>497</v>
+        <v>478</v>
       </c>
       <c r="BQ6" s="1" t="s">
         <v>26</v>
@@ -3651,7 +3655,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:87" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:87" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>24</v>
       </c>
@@ -3686,7 +3690,7 @@
         <v>62</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>498</v>
+        <v>479</v>
       </c>
       <c r="M7" s="1" t="s">
         <v>26</v>
@@ -3731,7 +3735,7 @@
         <v>43</v>
       </c>
       <c r="AA7" s="1" t="s">
-        <v>490</v>
+        <v>471</v>
       </c>
       <c r="AB7" s="1" t="s">
         <v>24</v>
@@ -3854,7 +3858,7 @@
         <v>25</v>
       </c>
       <c r="BP7" s="1" t="s">
-        <v>498</v>
+        <v>479</v>
       </c>
       <c r="BQ7" s="1" t="s">
         <v>26</v>
@@ -3911,16 +3915,16 @@
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:87" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="9" spans="1:87" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="10" spans="1:87" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="11" spans="1:87" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="12" spans="1:87" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="13" spans="1:87" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="14" spans="1:87" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="15" spans="1:87" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="16" spans="1:87" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="17" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="8" spans="1:87" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="9" spans="1:87" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="10" spans="1:87" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="11" spans="1:87" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="12" spans="1:87" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="13" spans="1:87" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="14" spans="1:87" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="15" spans="1:87" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="16" spans="1:87" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="17" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3932,16 +3936,16 @@
   <dimension ref="A1:EI7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="12.25" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.21875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>148</v>
       </c>
@@ -4360,9 +4364,9 @@
         <v>274</v>
       </c>
     </row>
-    <row r="2" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>468</v>
+        <v>480</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>275</v>
@@ -4371,16 +4375,16 @@
         <v>39</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>469</v>
+        <v>481</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>469</v>
+        <v>481</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>24</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>500</v>
+        <v>482</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>54</v>
@@ -4422,10 +4426,10 @@
         <v>36</v>
       </c>
       <c r="W2" s="1" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="X2" s="1" t="s">
-        <v>471</v>
+        <v>483</v>
       </c>
       <c r="Y2" s="1" t="s">
         <v>26</v>
@@ -4434,7 +4438,7 @@
         <v>26</v>
       </c>
       <c r="AA2" s="1" t="s">
-        <v>472</v>
+        <v>484</v>
       </c>
       <c r="AB2" s="1" t="s">
         <v>59</v>
@@ -4482,7 +4486,7 @@
         <v>278</v>
       </c>
       <c r="AQ2" s="1" t="s">
-        <v>467</v>
+        <v>41</v>
       </c>
       <c r="AR2" s="1" t="s">
         <v>54</v>
@@ -4506,7 +4510,7 @@
         <v>26</v>
       </c>
       <c r="AZ2" s="1" t="s">
-        <v>276</v>
+        <v>485</v>
       </c>
       <c r="BA2" s="1" t="s">
         <v>24</v>
@@ -4569,7 +4573,7 @@
         <v>281</v>
       </c>
       <c r="BZ2" s="1" t="s">
-        <v>499</v>
+        <v>486</v>
       </c>
       <c r="CA2" s="1" t="s">
         <v>26</v>
@@ -4587,7 +4591,7 @@
         <v>24</v>
       </c>
       <c r="CH2" s="1" t="s">
-        <v>473</v>
+        <v>487</v>
       </c>
       <c r="CJ2" s="1" t="s">
         <v>282</v>
@@ -4686,9 +4690,9 @@
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>474</v>
+        <v>488</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>275</v>
@@ -4697,34 +4701,34 @@
         <v>39</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>469</v>
+        <v>489</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>469</v>
+        <v>489</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>24</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>500</v>
+        <v>482</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="L3" s="1" t="s">
         <v>44</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="O3" s="1" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="P3" s="1" t="s">
         <v>40</v>
@@ -4745,13 +4749,13 @@
         <v>277</v>
       </c>
       <c r="V3" s="1" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="W3" s="1" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="X3" s="1" t="s">
-        <v>471</v>
+        <v>483</v>
       </c>
       <c r="Y3" s="1" t="s">
         <v>26</v>
@@ -4760,10 +4764,10 @@
         <v>26</v>
       </c>
       <c r="AA3" s="1" t="s">
-        <v>475</v>
+        <v>490</v>
       </c>
       <c r="AB3" s="1" t="s">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="AC3" s="1" t="s">
         <v>26</v>
@@ -4808,13 +4812,13 @@
         <v>278</v>
       </c>
       <c r="AQ3" s="1" t="s">
-        <v>467</v>
+        <v>41</v>
       </c>
       <c r="AR3" s="1" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="AS3" s="1" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="AT3" s="1" t="s">
         <v>279</v>
@@ -4823,7 +4827,7 @@
         <v>44</v>
       </c>
       <c r="AV3" s="1" t="s">
-        <v>290</v>
+        <v>280</v>
       </c>
       <c r="AX3" s="1" t="s">
         <v>43</v>
@@ -4832,7 +4836,7 @@
         <v>26</v>
       </c>
       <c r="AZ3" s="1" t="s">
-        <v>276</v>
+        <v>485</v>
       </c>
       <c r="BA3" s="1" t="s">
         <v>24</v>
@@ -4865,7 +4869,7 @@
         <v>24</v>
       </c>
       <c r="BN3" s="1" t="s">
-        <v>445</v>
+        <v>284</v>
       </c>
       <c r="BP3" s="1" t="s">
         <v>282</v>
@@ -4895,7 +4899,7 @@
         <v>281</v>
       </c>
       <c r="BZ3" s="1" t="s">
-        <v>499</v>
+        <v>486</v>
       </c>
       <c r="CA3" s="1" t="s">
         <v>26</v>
@@ -4913,7 +4917,7 @@
         <v>24</v>
       </c>
       <c r="CH3" s="1" t="s">
-        <v>476</v>
+        <v>491</v>
       </c>
       <c r="CJ3" s="1" t="s">
         <v>282</v>
@@ -5012,9 +5016,9 @@
         <v>29</v>
       </c>
     </row>
-    <row r="4" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>477</v>
+        <v>492</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>275</v>
@@ -5023,34 +5027,34 @@
         <v>39</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>469</v>
+        <v>489</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>469</v>
+        <v>489</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>24</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>500</v>
+        <v>482</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>33</v>
+        <v>48</v>
       </c>
       <c r="L4" s="1" t="s">
         <v>44</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>32</v>
+        <v>47</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>34</v>
+        <v>50</v>
       </c>
       <c r="O4" s="1" t="s">
-        <v>35</v>
+        <v>51</v>
       </c>
       <c r="P4" s="1" t="s">
         <v>40</v>
@@ -5071,13 +5075,13 @@
         <v>277</v>
       </c>
       <c r="V4" s="1" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="W4" s="1" t="s">
-        <v>478</v>
+        <v>467</v>
       </c>
       <c r="X4" s="1" t="s">
-        <v>471</v>
+        <v>483</v>
       </c>
       <c r="Y4" s="1" t="s">
         <v>26</v>
@@ -5086,10 +5090,10 @@
         <v>26</v>
       </c>
       <c r="AA4" s="1" t="s">
-        <v>479</v>
+        <v>493</v>
       </c>
       <c r="AB4" s="1" t="s">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="AC4" s="1" t="s">
         <v>26</v>
@@ -5134,13 +5138,13 @@
         <v>278</v>
       </c>
       <c r="AQ4" s="1" t="s">
-        <v>467</v>
+        <v>41</v>
       </c>
       <c r="AR4" s="1" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="AS4" s="1" t="s">
-        <v>33</v>
+        <v>48</v>
       </c>
       <c r="AT4" s="1" t="s">
         <v>279</v>
@@ -5149,7 +5153,7 @@
         <v>44</v>
       </c>
       <c r="AV4" s="1" t="s">
-        <v>280</v>
+        <v>290</v>
       </c>
       <c r="AX4" s="1" t="s">
         <v>43</v>
@@ -5158,7 +5162,7 @@
         <v>26</v>
       </c>
       <c r="AZ4" s="1" t="s">
-        <v>276</v>
+        <v>485</v>
       </c>
       <c r="BA4" s="1" t="s">
         <v>24</v>
@@ -5191,7 +5195,7 @@
         <v>24</v>
       </c>
       <c r="BN4" s="1" t="s">
-        <v>284</v>
+        <v>445</v>
       </c>
       <c r="BP4" s="1" t="s">
         <v>282</v>
@@ -5221,7 +5225,7 @@
         <v>281</v>
       </c>
       <c r="BZ4" s="1" t="s">
-        <v>499</v>
+        <v>486</v>
       </c>
       <c r="CA4" s="1" t="s">
         <v>26</v>
@@ -5239,7 +5243,7 @@
         <v>24</v>
       </c>
       <c r="CH4" s="1" t="s">
-        <v>480</v>
+        <v>494</v>
       </c>
       <c r="CJ4" s="1" t="s">
         <v>282</v>
@@ -5338,9 +5342,9 @@
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>481</v>
+        <v>495</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>275</v>
@@ -5349,16 +5353,16 @@
         <v>39</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>469</v>
+        <v>489</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>469</v>
+        <v>489</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>24</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>500</v>
+        <v>482</v>
       </c>
       <c r="J5" s="1" t="s">
         <v>46</v>
@@ -5400,10 +5404,10 @@
         <v>291</v>
       </c>
       <c r="W5" s="1" t="s">
-        <v>478</v>
+        <v>469</v>
       </c>
       <c r="X5" s="1" t="s">
-        <v>471</v>
+        <v>483</v>
       </c>
       <c r="Y5" s="1" t="s">
         <v>26</v>
@@ -5412,7 +5416,7 @@
         <v>26</v>
       </c>
       <c r="AA5" s="1" t="s">
-        <v>475</v>
+        <v>493</v>
       </c>
       <c r="AB5" s="1" t="s">
         <v>38</v>
@@ -5460,7 +5464,7 @@
         <v>278</v>
       </c>
       <c r="AQ5" s="1" t="s">
-        <v>467</v>
+        <v>41</v>
       </c>
       <c r="AR5" s="1" t="s">
         <v>46</v>
@@ -5484,7 +5488,7 @@
         <v>26</v>
       </c>
       <c r="AZ5" s="1" t="s">
-        <v>276</v>
+        <v>485</v>
       </c>
       <c r="BA5" s="1" t="s">
         <v>24</v>
@@ -5547,7 +5551,7 @@
         <v>281</v>
       </c>
       <c r="BZ5" s="1" t="s">
-        <v>499</v>
+        <v>486</v>
       </c>
       <c r="CA5" s="1" t="s">
         <v>26</v>
@@ -5565,7 +5569,7 @@
         <v>24</v>
       </c>
       <c r="CH5" s="1" t="s">
-        <v>482</v>
+        <v>496</v>
       </c>
       <c r="CJ5" s="1" t="s">
         <v>282</v>
@@ -5664,9 +5668,9 @@
         <v>29</v>
       </c>
     </row>
-    <row r="6" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>483</v>
+        <v>497</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>275</v>
@@ -5675,16 +5679,16 @@
         <v>39</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>469</v>
+        <v>489</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>469</v>
+        <v>489</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>24</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>500</v>
+        <v>482</v>
       </c>
       <c r="J6" s="1" t="s">
         <v>54</v>
@@ -5726,10 +5730,10 @@
         <v>292</v>
       </c>
       <c r="W6" s="1" t="s">
-        <v>478</v>
+        <v>469</v>
       </c>
       <c r="X6" s="1" t="s">
-        <v>471</v>
+        <v>483</v>
       </c>
       <c r="Y6" s="1" t="s">
         <v>26</v>
@@ -5738,7 +5742,7 @@
         <v>26</v>
       </c>
       <c r="AA6" s="1" t="s">
-        <v>484</v>
+        <v>498</v>
       </c>
       <c r="AB6" s="1" t="s">
         <v>57</v>
@@ -5786,7 +5790,7 @@
         <v>278</v>
       </c>
       <c r="AQ6" s="1" t="s">
-        <v>467</v>
+        <v>41</v>
       </c>
       <c r="AR6" s="1" t="s">
         <v>54</v>
@@ -5810,7 +5814,7 @@
         <v>26</v>
       </c>
       <c r="AZ6" s="1" t="s">
-        <v>276</v>
+        <v>485</v>
       </c>
       <c r="BA6" s="1" t="s">
         <v>24</v>
@@ -5873,25 +5877,25 @@
         <v>281</v>
       </c>
       <c r="BZ6" s="1" t="s">
+        <v>486</v>
+      </c>
+      <c r="CA6" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="CB6" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="CD6" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="CE6" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="CG6" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="CH6" s="1" t="s">
         <v>499</v>
-      </c>
-      <c r="CA6" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="CB6" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="CD6" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="CE6" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="CG6" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="CH6" s="1" t="s">
-        <v>485</v>
       </c>
       <c r="CJ6" s="1" t="s">
         <v>282</v>
@@ -5990,9 +5994,9 @@
         <v>29</v>
       </c>
     </row>
-    <row r="7" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>486</v>
+        <v>500</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>275</v>
@@ -6001,16 +6005,16 @@
         <v>39</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>469</v>
+        <v>489</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>469</v>
+        <v>489</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>24</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>500</v>
+        <v>482</v>
       </c>
       <c r="J7" s="1" t="s">
         <v>60</v>
@@ -6052,10 +6056,10 @@
         <v>293</v>
       </c>
       <c r="W7" s="1" t="s">
-        <v>478</v>
+        <v>469</v>
       </c>
       <c r="X7" s="1" t="s">
-        <v>471</v>
+        <v>483</v>
       </c>
       <c r="Y7" s="1" t="s">
         <v>26</v>
@@ -6064,7 +6068,7 @@
         <v>26</v>
       </c>
       <c r="AA7" s="1" t="s">
-        <v>487</v>
+        <v>501</v>
       </c>
       <c r="AB7" s="1" t="s">
         <v>63</v>
@@ -6112,7 +6116,7 @@
         <v>278</v>
       </c>
       <c r="AQ7" s="1" t="s">
-        <v>467</v>
+        <v>41</v>
       </c>
       <c r="AR7" s="1" t="s">
         <v>60</v>
@@ -6136,7 +6140,7 @@
         <v>26</v>
       </c>
       <c r="AZ7" s="1" t="s">
-        <v>276</v>
+        <v>485</v>
       </c>
       <c r="BA7" s="1" t="s">
         <v>24</v>
@@ -6199,7 +6203,7 @@
         <v>281</v>
       </c>
       <c r="BZ7" s="1" t="s">
-        <v>499</v>
+        <v>486</v>
       </c>
       <c r="CA7" s="1" t="s">
         <v>26</v>
@@ -6217,7 +6221,7 @@
         <v>24</v>
       </c>
       <c r="CH7" s="1" t="s">
-        <v>488</v>
+        <v>502</v>
       </c>
       <c r="CJ7" s="1" t="s">
         <v>282</v>
@@ -6331,9 +6335,9 @@
       <selection activeCell="AU12" sqref="AU12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:141" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:141" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -6758,7 +6762,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="2" spans="1:141" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:141" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>24</v>
       </c>
@@ -6913,10 +6917,10 @@
         <v>281</v>
       </c>
       <c r="BE2" s="1" t="s">
-        <v>490</v>
+        <v>471</v>
       </c>
       <c r="BF2" s="1" t="s">
-        <v>490</v>
+        <v>471</v>
       </c>
       <c r="BG2" s="1" t="s">
         <v>440</v>
@@ -7024,7 +7028,7 @@
         <v>450</v>
       </c>
       <c r="DA2" s="1" t="s">
-        <v>491</v>
+        <v>472</v>
       </c>
       <c r="DB2" s="1" t="s">
         <v>439</v>
@@ -7039,7 +7043,7 @@
         <v>24</v>
       </c>
       <c r="DF2" s="1" t="s">
-        <v>490</v>
+        <v>471</v>
       </c>
       <c r="DG2" s="1" t="s">
         <v>284</v>
@@ -7108,7 +7112,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="3" spans="1:141" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:141" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>24</v>
       </c>
@@ -7263,10 +7267,10 @@
         <v>281</v>
       </c>
       <c r="BE3" s="1" t="s">
-        <v>492</v>
+        <v>473</v>
       </c>
       <c r="BF3" s="1" t="s">
-        <v>492</v>
+        <v>473</v>
       </c>
       <c r="BG3" s="1" t="s">
         <v>458</v>
@@ -7374,7 +7378,7 @@
         <v>450</v>
       </c>
       <c r="DA3" s="1" t="s">
-        <v>493</v>
+        <v>474</v>
       </c>
       <c r="DB3" s="1" t="s">
         <v>461</v>
@@ -7389,7 +7393,7 @@
         <v>24</v>
       </c>
       <c r="DF3" s="1" t="s">
-        <v>492</v>
+        <v>473</v>
       </c>
       <c r="DG3" s="1" t="s">
         <v>284</v>
@@ -7458,7 +7462,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="4" spans="1:141" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="4" spans="1:141" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/用例数据/沪A/ETF拆分/流通股分配/测试结果.xlsx
+++ b/用例数据/沪A/ETF拆分/流通股分配/测试结果.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="stkcheckin" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1829" uniqueCount="503">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1831" uniqueCount="503">
   <si>
     <t>OCCURTIME</t>
   </si>
@@ -1441,15 +1441,9 @@
     <t>0.6153</t>
   </si>
   <si>
-    <t>971643</t>
-  </si>
-  <si>
     <t>0.3935</t>
   </si>
   <si>
-    <t>285040</t>
-  </si>
-  <si>
     <t>7691.2500</t>
   </si>
   <si>
@@ -1532,6 +1526,12 @@
   </si>
   <si>
     <t>000007055206</t>
+  </si>
+  <si>
+    <t>19432867</t>
+  </si>
+  <si>
+    <t>5700800</t>
   </si>
 </sst>
 </file>
@@ -2390,7 +2390,7 @@
         <v>37</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="M2" s="1" t="s">
         <v>26</v>
@@ -2558,7 +2558,7 @@
         <v>25</v>
       </c>
       <c r="BP2" s="1" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="BQ2" s="1" t="s">
         <v>26</v>
@@ -2650,7 +2650,7 @@
         <v>49</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="M3" s="1" t="s">
         <v>26</v>
@@ -2818,7 +2818,7 @@
         <v>25</v>
       </c>
       <c r="BP3" s="1" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="BQ3" s="1" t="s">
         <v>26</v>
@@ -2910,7 +2910,7 @@
         <v>52</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="M4" s="1" t="s">
         <v>26</v>
@@ -2955,7 +2955,7 @@
         <v>43</v>
       </c>
       <c r="AA4" s="1" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="AB4" s="1" t="s">
         <v>24</v>
@@ -3078,7 +3078,7 @@
         <v>25</v>
       </c>
       <c r="BP4" s="1" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="BQ4" s="1" t="s">
         <v>26</v>
@@ -3170,7 +3170,7 @@
         <v>56</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="M5" s="1" t="s">
         <v>26</v>
@@ -3338,7 +3338,7 @@
         <v>25</v>
       </c>
       <c r="BP5" s="1" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="BQ5" s="1" t="s">
         <v>26</v>
@@ -3430,7 +3430,7 @@
         <v>58</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="M6" s="1" t="s">
         <v>26</v>
@@ -3475,7 +3475,7 @@
         <v>43</v>
       </c>
       <c r="AA6" s="1" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="AB6" s="1" t="s">
         <v>24</v>
@@ -3598,7 +3598,7 @@
         <v>25</v>
       </c>
       <c r="BP6" s="1" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="BQ6" s="1" t="s">
         <v>26</v>
@@ -3690,7 +3690,7 @@
         <v>62</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="M7" s="1" t="s">
         <v>26</v>
@@ -3858,7 +3858,7 @@
         <v>25</v>
       </c>
       <c r="BP7" s="1" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="BQ7" s="1" t="s">
         <v>26</v>
@@ -3935,7 +3935,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:EI7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
@@ -4366,7 +4366,7 @@
     </row>
     <row r="2" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>275</v>
@@ -4375,16 +4375,16 @@
         <v>39</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>24</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>54</v>
@@ -4429,7 +4429,7 @@
         <v>467</v>
       </c>
       <c r="X2" s="1" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="Y2" s="1" t="s">
         <v>26</v>
@@ -4438,7 +4438,7 @@
         <v>26</v>
       </c>
       <c r="AA2" s="1" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="AB2" s="1" t="s">
         <v>59</v>
@@ -4510,7 +4510,7 @@
         <v>26</v>
       </c>
       <c r="AZ2" s="1" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="BA2" s="1" t="s">
         <v>24</v>
@@ -4573,7 +4573,7 @@
         <v>281</v>
       </c>
       <c r="BZ2" s="1" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="CA2" s="1" t="s">
         <v>26</v>
@@ -4591,7 +4591,7 @@
         <v>24</v>
       </c>
       <c r="CH2" s="1" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="CJ2" s="1" t="s">
         <v>282</v>
@@ -4692,7 +4692,7 @@
     </row>
     <row r="3" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>275</v>
@@ -4701,16 +4701,16 @@
         <v>39</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>24</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>31</v>
@@ -4755,7 +4755,7 @@
         <v>469</v>
       </c>
       <c r="X3" s="1" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="Y3" s="1" t="s">
         <v>26</v>
@@ -4764,7 +4764,7 @@
         <v>26</v>
       </c>
       <c r="AA3" s="1" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="AB3" s="1" t="s">
         <v>38</v>
@@ -4836,7 +4836,7 @@
         <v>26</v>
       </c>
       <c r="AZ3" s="1" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="BA3" s="1" t="s">
         <v>24</v>
@@ -4899,7 +4899,7 @@
         <v>281</v>
       </c>
       <c r="BZ3" s="1" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="CA3" s="1" t="s">
         <v>26</v>
@@ -4917,7 +4917,7 @@
         <v>24</v>
       </c>
       <c r="CH3" s="1" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="CJ3" s="1" t="s">
         <v>282</v>
@@ -5018,7 +5018,7 @@
     </row>
     <row r="4" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>275</v>
@@ -5027,16 +5027,16 @@
         <v>39</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>24</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>46</v>
@@ -5081,7 +5081,7 @@
         <v>467</v>
       </c>
       <c r="X4" s="1" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="Y4" s="1" t="s">
         <v>26</v>
@@ -5090,7 +5090,7 @@
         <v>26</v>
       </c>
       <c r="AA4" s="1" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="AB4" s="1" t="s">
         <v>53</v>
@@ -5162,7 +5162,7 @@
         <v>26</v>
       </c>
       <c r="AZ4" s="1" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="BA4" s="1" t="s">
         <v>24</v>
@@ -5225,7 +5225,7 @@
         <v>281</v>
       </c>
       <c r="BZ4" s="1" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="CA4" s="1" t="s">
         <v>26</v>
@@ -5243,7 +5243,7 @@
         <v>24</v>
       </c>
       <c r="CH4" s="1" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="CJ4" s="1" t="s">
         <v>282</v>
@@ -5344,7 +5344,7 @@
     </row>
     <row r="5" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>275</v>
@@ -5353,16 +5353,16 @@
         <v>39</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>24</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="J5" s="1" t="s">
         <v>46</v>
@@ -5407,7 +5407,7 @@
         <v>469</v>
       </c>
       <c r="X5" s="1" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="Y5" s="1" t="s">
         <v>26</v>
@@ -5416,7 +5416,7 @@
         <v>26</v>
       </c>
       <c r="AA5" s="1" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="AB5" s="1" t="s">
         <v>38</v>
@@ -5488,7 +5488,7 @@
         <v>26</v>
       </c>
       <c r="AZ5" s="1" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="BA5" s="1" t="s">
         <v>24</v>
@@ -5551,7 +5551,7 @@
         <v>281</v>
       </c>
       <c r="BZ5" s="1" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="CA5" s="1" t="s">
         <v>26</v>
@@ -5569,7 +5569,7 @@
         <v>24</v>
       </c>
       <c r="CH5" s="1" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="CJ5" s="1" t="s">
         <v>282</v>
@@ -5670,7 +5670,7 @@
     </row>
     <row r="6" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>275</v>
@@ -5679,16 +5679,16 @@
         <v>39</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>24</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="J6" s="1" t="s">
         <v>54</v>
@@ -5733,7 +5733,7 @@
         <v>469</v>
       </c>
       <c r="X6" s="1" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="Y6" s="1" t="s">
         <v>26</v>
@@ -5742,7 +5742,7 @@
         <v>26</v>
       </c>
       <c r="AA6" s="1" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="AB6" s="1" t="s">
         <v>57</v>
@@ -5814,7 +5814,7 @@
         <v>26</v>
       </c>
       <c r="AZ6" s="1" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="BA6" s="1" t="s">
         <v>24</v>
@@ -5877,7 +5877,7 @@
         <v>281</v>
       </c>
       <c r="BZ6" s="1" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="CA6" s="1" t="s">
         <v>26</v>
@@ -5895,7 +5895,7 @@
         <v>24</v>
       </c>
       <c r="CH6" s="1" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="CJ6" s="1" t="s">
         <v>282</v>
@@ -5996,7 +5996,7 @@
     </row>
     <row r="7" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>275</v>
@@ -6005,16 +6005,16 @@
         <v>39</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>24</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="J7" s="1" t="s">
         <v>60</v>
@@ -6059,7 +6059,7 @@
         <v>469</v>
       </c>
       <c r="X7" s="1" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="Y7" s="1" t="s">
         <v>26</v>
@@ -6068,7 +6068,7 @@
         <v>26</v>
       </c>
       <c r="AA7" s="1" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="AB7" s="1" t="s">
         <v>63</v>
@@ -6140,7 +6140,7 @@
         <v>26</v>
       </c>
       <c r="AZ7" s="1" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="BA7" s="1" t="s">
         <v>24</v>
@@ -6203,7 +6203,7 @@
         <v>281</v>
       </c>
       <c r="BZ7" s="1" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="CA7" s="1" t="s">
         <v>26</v>
@@ -6221,7 +6221,7 @@
         <v>24</v>
       </c>
       <c r="CH7" s="1" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="CJ7" s="1" t="s">
         <v>282</v>
@@ -6329,15 +6329,15 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:EK4"/>
+  <dimension ref="A1:EL4"/>
   <sheetViews>
-    <sheetView topLeftCell="AT1" workbookViewId="0">
-      <selection activeCell="AU12" sqref="AU12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:141" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:142" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -6762,7 +6762,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="2" spans="1:141" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:142" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>24</v>
       </c>
@@ -7028,7 +7028,7 @@
         <v>450</v>
       </c>
       <c r="DA2" s="1" t="s">
-        <v>472</v>
+        <v>501</v>
       </c>
       <c r="DB2" s="1" t="s">
         <v>439</v>
@@ -7082,7 +7082,7 @@
         <v>24</v>
       </c>
       <c r="DX2" s="1" t="s">
-        <v>24</v>
+        <v>440</v>
       </c>
       <c r="DY2" s="1" t="s">
         <v>428</v>
@@ -7111,8 +7111,11 @@
       <c r="EK2" s="1" t="s">
         <v>286</v>
       </c>
+      <c r="EL2" s="1" t="s">
+        <v>453</v>
+      </c>
     </row>
-    <row r="3" spans="1:141" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:142" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>24</v>
       </c>
@@ -7267,10 +7270,10 @@
         <v>281</v>
       </c>
       <c r="BE3" s="1" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="BF3" s="1" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="BG3" s="1" t="s">
         <v>458</v>
@@ -7378,7 +7381,7 @@
         <v>450</v>
       </c>
       <c r="DA3" s="1" t="s">
-        <v>474</v>
+        <v>502</v>
       </c>
       <c r="DB3" s="1" t="s">
         <v>461</v>
@@ -7393,7 +7396,7 @@
         <v>24</v>
       </c>
       <c r="DF3" s="1" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="DG3" s="1" t="s">
         <v>284</v>
@@ -7432,7 +7435,7 @@
         <v>24</v>
       </c>
       <c r="DX3" s="1" t="s">
-        <v>24</v>
+        <v>458</v>
       </c>
       <c r="DY3" s="1" t="s">
         <v>428</v>
@@ -7461,8 +7464,11 @@
       <c r="EK3" s="1" t="s">
         <v>286</v>
       </c>
+      <c r="EL3" s="1" t="s">
+        <v>453</v>
+      </c>
     </row>
-    <row r="4" spans="1:141" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4" spans="1:142" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
